--- a/testcases/LiverpoolFinal.xlsx
+++ b/testcases/LiverpoolFinal.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzgk290\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzgk290\test_automation\LiverpoolFinal\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9CD4BD-3491-4EBE-A103-6FE1136DAFB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F658C8C-5F3E-4204-829F-2EF779E57C75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25490" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="210" windowWidth="28800" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="29">
   <si>
     <t>ID</t>
   </si>
@@ -63,13 +63,7 @@
     <t>verificar la pagina</t>
   </si>
   <si>
-    <t>Agregar tres articulos a la bolsa y verificar que estan ahi</t>
-  </si>
-  <si>
     <t>url: https://liverpool.com.mx</t>
-  </si>
-  <si>
-    <t>El icono de la bolsa indica tres productos</t>
   </si>
   <si>
     <t>Navegar a la bolsa</t>
@@ -81,41 +75,78 @@
     <t>Validar la informacion de los  productos</t>
   </si>
   <si>
-    <t xml:space="preserve">producto:
-producto: 
-producto: 
-numeroProducto: x
-elegir producto mas caro?
+    <t>Dar click en el link Ayuda</t>
+  </si>
+  <si>
+    <t>HomePage: 
+logoLiverpool; // css=.a-header__logo
+campoBusqueda: // css= .form-control
+iconoBusqueda; // css= .icon-zoom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HomePage: 
+logoLiverpool; // css=.a-header__logo
+campoBusqueda: // css= .form-control
+iconoBusqueda; // css= .icon-zoom
+LinkAyuda: // css =.a-header__strongLink[href='https://assetspwa.liverpool.com.mx/ayuda/#/']
+HelpPage:
+LogoAyuda: // css = h2.ayuda
+PreguntasCrédito; //css = [href='#/faq/credito/']
+</t>
+  </si>
+  <si>
+    <t>Redirigir a la página de ayuda</t>
+  </si>
+  <si>
+    <t>Ver las respuestas de la pregunta frecuente</t>
+  </si>
+  <si>
+    <t xml:space="preserve">preguntaFrecuente: "formas de pago"
+</t>
+  </si>
+  <si>
+    <t>Seleccionar pregunta y ver respuestas</t>
+  </si>
+  <si>
+    <t>CartPage:
+botonComprar : css = .a-product__buttonBuy
+listaArticulos;//  css= .t-myBag__productList
+nombreArticulo;// css= .t-myBag__productList .o-myBag__description .a-inlineElement--enphasis
+precioArticulo;// css = .t-myBag__productList [name='columnPrice'] .a-inlineElement--enphasis</t>
+  </si>
+  <si>
+    <t>Agregar dos articulos a la bolsa y verificar que estan ahi</t>
+  </si>
+  <si>
+    <t>El icono de la bolsa indica dos productos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">producto: maletas
+producto: extractor de jugos
 Articulo:
 nombre, 
 precio
-descripcion
-talla
 </t>
   </si>
   <si>
-    <t xml:space="preserve">AyudaPage:
-LinkAyuda:
-</t>
+    <t>CreditQAPage:
+PreguntaFrecuenteLogo; // css = "[ng-bind='actualCategory.titulo']"
+TypesOfPaymentsPage:
+Preguntas; // css=".ask"
+Respuestas; // css=".ans.active ul li"
+'</t>
   </si>
   <si>
-    <t>CartPage:
-listaArticulos;//  css= 
-mosaicoArticulo;// css= .t-myBag__productList
-nombreARticulo;// css= 
-precioArticulo;//</t>
-  </si>
-  <si>
-    <t>Dar click en el link Ayuda</t>
+    <t>Ir a la sección de preguntas más frecuentes para tipos de pago</t>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">HomePage: 
+      <t>HomePage: 
 logoLiverpool; // css=.a-header__logo
 campoBusqueda: // css= .form-control
 iconoBusqueda; // css= .icon-zoom
 ResultsPage:
-listaArticulos; // css= </t>
+listaArticulos; // css= .</t>
     </r>
     <r>
       <rPr>
@@ -136,51 +167,14 @@
       </rPr>
       <t xml:space="preserve">.card.m-plp-product-card.m-card
 mosaicoArticulo; //css = .o-listing__products
-nombreArticulo; // 
-precioAlto; //
 ProductPage:
 nombreArticulo;// css=.o-product__description .a-product__information--title
 precioArticulo; // css=.o-product__description .a-product__paragraphDiscountPrice
-tamanioArticulo; // 
-botonAgregarBolsa; // .col-12 #opc_pdp_addCartButton
+botonAgregarBolsa; xpath: //*[@id="opc_pdp_addCartButton"]
+campoBusqueda: // css= .form-control
+bolsa: css= ".a-header__bag"
 </t>
     </r>
-  </si>
-  <si>
-    <t>HomePage: 
-logoLiverpool; // css=.a-header__logo
-campoBusqueda: // css= .form-control
-iconoBusqueda; // css= .icon-zoom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">HomePage: 
-logoLiverpool; // css=.a-header__logo
-campoBusqueda: // css= .form-control
-iconoBusqueda; // css= .icon-zoom
-LinkAyuda: // css =.a-header__strongLink[href='https://assetspwa.liverpool.com.mx/ayuda/#/']
-HelpPage:
-LogoAyuda: // css = h2.ayuda
-PreguntasCrédito; //css = [href='#/faq/credito/']
-</t>
-  </si>
-  <si>
-    <t>FAQCreditPage:
-PreguntaFrecuenteLogo; // css = "[ng-bind='actualCategory.titulo']"
-Preguntas; // css=".ask"
-Respuestas; // css=".ans.active ul li"'</t>
-  </si>
-  <si>
-    <t>Redirigir a la página de ayuda</t>
-  </si>
-  <si>
-    <t>Ver las respuestas de la pregunta frecuente</t>
-  </si>
-  <si>
-    <t xml:space="preserve">preguntaFrecuente: "formas de pago"
-</t>
-  </si>
-  <si>
-    <t>Seleccionar pregunta y ver respuestas</t>
   </si>
 </sst>
 </file>
@@ -601,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G1001"/>
+  <dimension ref="A1:G1003"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="14.5"/>
@@ -639,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>8</v>
@@ -706,29 +700,29 @@
         <v>10</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
     </row>
-    <row r="8" spans="1:7" ht="252">
+    <row r="8" spans="1:7" ht="224">
       <c r="A8" s="6">
         <v>2</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -738,118 +732,120 @@
         <v>3</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" ht="43.5">
+    <row r="10" spans="1:7" ht="67" customHeight="1">
       <c r="A10" s="2"/>
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="4" t="s">
-        <v>18</v>
-      </c>
+      <c r="E10" s="4"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" s="2" customFormat="1">
       <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="58">
+      <c r="A12" s="2">
+        <v>2</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C13" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" ht="56">
-      <c r="A12" s="6">
-        <v>1</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" ht="154">
-      <c r="A13" s="6">
-        <v>2</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="8" t="s">
-        <v>23</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="56">
       <c r="A14" s="6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
-      <c r="E14" s="8" t="s">
-        <v>24</v>
+      <c r="E14" s="7" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
+    <row r="15" spans="1:7" ht="154">
+      <c r="A15" s="6">
+        <v>2</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D15" s="6"/>
+      <c r="E15" s="8" t="s">
+        <v>17</v>
+      </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2"/>
+    <row r="16" spans="1:7" ht="98">
+      <c r="A16" s="6">
+        <v>3</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>26</v>
+      </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
     </row>
@@ -9718,6 +9714,24 @@
       <c r="F1001" s="2"/>
       <c r="G1001" s="2"/>
     </row>
+    <row r="1002" spans="1:7">
+      <c r="A1002" s="2"/>
+      <c r="B1002" s="2"/>
+      <c r="C1002" s="2"/>
+      <c r="D1002" s="2"/>
+      <c r="E1002" s="2"/>
+      <c r="F1002" s="2"/>
+      <c r="G1002" s="2"/>
+    </row>
+    <row r="1003" spans="1:7">
+      <c r="A1003" s="2"/>
+      <c r="B1003" s="2"/>
+      <c r="C1003" s="2"/>
+      <c r="D1003" s="2"/>
+      <c r="E1003" s="2"/>
+      <c r="F1003" s="2"/>
+      <c r="G1003" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/testcases/LiverpoolFinal.xlsx
+++ b/testcases/LiverpoolFinal.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzgk290\test_automation\LiverpoolFinal\testcases\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kzgk290\test_automation\LiverpoolFinal\LiverpoolFinal\testcases\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F658C8C-5F3E-4204-829F-2EF779E57C75}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C363660-3416-4A31-B01B-0897A63A4A63}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="210" windowWidth="28800" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -129,14 +129,6 @@
 </t>
   </si>
   <si>
-    <t>CreditQAPage:
-PreguntaFrecuenteLogo; // css = "[ng-bind='actualCategory.titulo']"
-TypesOfPaymentsPage:
-Preguntas; // css=".ask"
-Respuestas; // css=".ans.active ul li"
-'</t>
-  </si>
-  <si>
     <t>Ir a la sección de preguntas más frecuentes para tipos de pago</t>
   </si>
   <si>
@@ -175,6 +167,13 @@
 bolsa: css= ".a-header__bag"
 </t>
     </r>
+  </si>
+  <si>
+    <t>CreditQAPage:
+PreguntaFrecuenteLogo; // css = "[ng-bind='actualCategory.titulo']"
+Preguntas; // css=".ask"
+Respuestas; // css=".ans[style='display: block;'] ul li"
+'</t>
   </si>
 </sst>
 </file>
@@ -597,8 +596,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1003"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.36328125" defaultRowHeight="14.5"/>
@@ -722,7 +721,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
@@ -769,7 +768,7 @@
         <v>2</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>8</v>
@@ -830,7 +829,7 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="16" spans="1:7" ht="98">
+    <row r="16" spans="1:7" ht="70">
       <c r="A16" s="6">
         <v>3</v>
       </c>
@@ -844,7 +843,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
